--- a/biology/Microbiologie/Archiastomatidae/Archiastomatidae.xlsx
+++ b/biology/Microbiologie/Archiastomatidae/Archiastomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archiastomata adami est une espèce de Ciliés, unique espèce décrite de la famille des Archiastomatidae et du genre Archiastomata, lequel appartient à la classe des Oligohymenophorea et l’ordre des Astomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Archiastomata, est composé du préfixe archi,  « premier, ancien », et du suffixe -stoma, « bouche » (précédé du privatif -a-, littéralement « sans bouche »), l'ensemble signifiant « premier (cilié) sans bouche ».
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,10 +612,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de la famille de ce taxon est Archiastomatidae Foissner,1976[1].
-D'après Lynn (2008), cette famille a pour synonyme celle des Bursariidae Bory de St. Vincent, 1826[2], qui pourtant ne contient pas le genre Archiastomata.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de la famille de ce taxon est Archiastomatidae Foissner,1976.
+D'après Lynn (2008), cette famille a pour synonyme celle des Bursariidae Bory de St. Vincent, 1826, qui pourtant ne contient pas le genre Archiastomata.
 </t>
         </is>
       </c>
@@ -626,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) W. Foissner, « Archiastomata adami nov. gen., nov. spec. (Archiastomatidae nov. fam.), ein freilebender astomater Ciliat », Acta Protozoologica, Warszawa, vol. 15, no 3,‎ 1976, p. 295-306 (ISSN 0065-1583, e-ISSN 1689-0027, lire en ligne [PDF]).</t>
         </is>
